--- a/1-1-Student-Resources/1-Student-Resources/06-Stu_ProductPivot/Unsolved/ProductionPivot_Unsolved.xlsx
+++ b/1-1-Student-Resources/1-Student-Resources/06-Stu_ProductPivot/Unsolved/ProductionPivot_Unsolved.xlsx
@@ -1,24 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\12-Stu_ProductPivot\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/elizabeth_thomas_spglobal_com/Documents/Desktop/ET/Class/Rice University - Data Viz/Git/Bootcamp/1-1-Student-Resources/1-Student-Resources/06-Stu_ProductPivot/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_7B869872D84A6037B9C7EC1E57B2F1BE3303130A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF20F3CB-C0B9-4C4C-B7EA-FFEF384BB911}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product List" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -178,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +236,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -512,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J1" sqref="J1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +594,7 @@
       <c r="C2" s="4">
         <v>19.96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="4">
@@ -573,7 +612,7 @@
       <c r="C3" s="4">
         <v>14.96</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="4">
@@ -582,7 +621,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A52" si="0">100+ROW()-2</f>
+        <f t="shared" ref="A4:A11" si="0">100+ROW()-2</f>
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -591,7 +630,7 @@
       <c r="C4" s="4">
         <v>3.99</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="4">
@@ -609,7 +648,7 @@
       <c r="C5" s="4">
         <v>4.42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="4">
@@ -783,11 +822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E29"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,8 +863,14 @@
       <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4">
+        <f>VLOOKUP(B2,'Product List'!$A$2:$C$18,3)</f>
+        <v>10.95</v>
+      </c>
+      <c r="E2" s="4">
+        <f>VLOOKUP(C2,'Product List'!$E$2:$F$5,2)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -837,8 +882,14 @@
       <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4">
+        <f>VLOOKUP(B3,'Product List'!$A$2:$C$18,3)</f>
+        <v>15.99</v>
+      </c>
+      <c r="E3" s="4" t="e">
+        <f>VLOOKUP(C3,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -850,8 +901,14 @@
       <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4">
+        <f>VLOOKUP(B4,'Product List'!$A$2:$C$18,3)</f>
+        <v>10.95</v>
+      </c>
+      <c r="E4" s="4">
+        <f>VLOOKUP(C4,'Product List'!$E$2:$F$5,2)</f>
+        <v>7.25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -863,8 +920,14 @@
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4">
+        <f>VLOOKUP(B5,'Product List'!$A$2:$C$18,3)</f>
+        <v>3.99</v>
+      </c>
+      <c r="E5" s="4">
+        <f>VLOOKUP(C5,'Product List'!$E$2:$F$5,2)</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -876,8 +939,14 @@
       <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4">
+        <f>VLOOKUP(B6,'Product List'!$A$2:$C$18,3)</f>
+        <v>7.95</v>
+      </c>
+      <c r="E6" s="4">
+        <f>VLOOKUP(C6,'Product List'!$E$2:$F$5,2)</f>
+        <v>7.25</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -889,8 +958,14 @@
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4">
+        <f>VLOOKUP(B7,'Product List'!$A$2:$C$18,3)</f>
+        <v>7.75</v>
+      </c>
+      <c r="E7" s="4">
+        <f>VLOOKUP(C7,'Product List'!$E$2:$F$5,2)</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -902,8 +977,14 @@
       <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4">
+        <f>VLOOKUP(B8,'Product List'!$A$2:$C$18,3)</f>
+        <v>19.96</v>
+      </c>
+      <c r="E8" s="4" t="e">
+        <f>VLOOKUP(C8,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -915,8 +996,14 @@
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4">
+        <f>VLOOKUP(B9,'Product List'!$A$2:$C$18,3)</f>
+        <v>6.76</v>
+      </c>
+      <c r="E9" s="4" t="e">
+        <f>VLOOKUP(C9,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -928,8 +1015,14 @@
       <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4">
+        <f>VLOOKUP(B10,'Product List'!$A$2:$C$18,3)</f>
+        <v>10.95</v>
+      </c>
+      <c r="E10" s="4">
+        <f>VLOOKUP(C10,'Product List'!$E$2:$F$5,2)</f>
+        <v>7.25</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -941,8 +1034,14 @@
       <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4">
+        <f>VLOOKUP(B11,'Product List'!$A$2:$C$18,3)</f>
+        <v>3.99</v>
+      </c>
+      <c r="E11" s="4" t="e">
+        <f>VLOOKUP(C11,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -954,8 +1053,14 @@
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4">
+        <f>VLOOKUP(B12,'Product List'!$A$2:$C$18,3)</f>
+        <v>3.99</v>
+      </c>
+      <c r="E12" s="4" t="e">
+        <f>VLOOKUP(C12,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -967,8 +1072,14 @@
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4">
+        <f>VLOOKUP(B13,'Product List'!$A$2:$C$18,3)</f>
+        <v>31.99</v>
+      </c>
+      <c r="E13" s="4">
+        <f>VLOOKUP(C13,'Product List'!$E$2:$F$5,2)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -980,8 +1091,14 @@
       <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4">
+        <f>VLOOKUP(B14,'Product List'!$A$2:$C$18,3)</f>
+        <v>19.96</v>
+      </c>
+      <c r="E14" s="4">
+        <f>VLOOKUP(C14,'Product List'!$E$2:$F$5,2)</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -993,8 +1110,14 @@
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4">
+        <f>VLOOKUP(B15,'Product List'!$A$2:$C$18,3)</f>
+        <v>31.99</v>
+      </c>
+      <c r="E15" s="4">
+        <f>VLOOKUP(C15,'Product List'!$E$2:$F$5,2)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -1006,8 +1129,14 @@
       <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4">
+        <f>VLOOKUP(B16,'Product List'!$A$2:$C$18,3)</f>
+        <v>14.96</v>
+      </c>
+      <c r="E16" s="4">
+        <f>VLOOKUP(C16,'Product List'!$E$2:$F$5,2)</f>
+        <v>7.25</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -1019,8 +1148,14 @@
       <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4">
+        <f>VLOOKUP(B17,'Product List'!$A$2:$C$18,3)</f>
+        <v>3.99</v>
+      </c>
+      <c r="E17" s="4">
+        <f>VLOOKUP(C17,'Product List'!$E$2:$F$5,2)</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -1032,8 +1167,14 @@
       <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4">
+        <f>VLOOKUP(B18,'Product List'!$A$2:$C$18,3)</f>
+        <v>6.76</v>
+      </c>
+      <c r="E18" s="4">
+        <f>VLOOKUP(C18,'Product List'!$E$2:$F$5,2)</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -1045,8 +1186,14 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4">
+        <f>VLOOKUP(B19,'Product List'!$A$2:$C$18,3)</f>
+        <v>10.95</v>
+      </c>
+      <c r="E19" s="4" t="e">
+        <f>VLOOKUP(C19,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -1058,8 +1205,14 @@
       <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="4">
+        <f>VLOOKUP(B20,'Product List'!$A$2:$C$18,3)</f>
+        <v>15.99</v>
+      </c>
+      <c r="E20" s="4" t="e">
+        <f>VLOOKUP(C20,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -1071,8 +1224,14 @@
       <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4">
+        <f>VLOOKUP(B21,'Product List'!$A$2:$C$18,3)</f>
+        <v>3.99</v>
+      </c>
+      <c r="E21" s="4" t="e">
+        <f>VLOOKUP(C21,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -1084,8 +1243,14 @@
       <c r="C22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4">
+        <f>VLOOKUP(B22,'Product List'!$A$2:$C$18,3)</f>
+        <v>4.42</v>
+      </c>
+      <c r="E22" s="4">
+        <f>VLOOKUP(C22,'Product List'!$E$2:$F$5,2)</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
@@ -1097,8 +1262,14 @@
       <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4">
+        <f>VLOOKUP(B23,'Product List'!$A$2:$C$18,3)</f>
+        <v>109.99</v>
+      </c>
+      <c r="E23" s="4" t="e">
+        <f>VLOOKUP(C23,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1110,8 +1281,14 @@
       <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="4">
+        <f>VLOOKUP(B24,'Product List'!$A$2:$C$18,3)</f>
+        <v>109.99</v>
+      </c>
+      <c r="E24" s="4">
+        <f>VLOOKUP(C24,'Product List'!$E$2:$F$5,2)</f>
+        <v>7.25</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
@@ -1123,8 +1300,14 @@
       <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="4">
+        <f>VLOOKUP(B25,'Product List'!$A$2:$C$18,3)</f>
+        <v>4.42</v>
+      </c>
+      <c r="E25" s="4" t="e">
+        <f>VLOOKUP(C25,'Product List'!$E$2:$F$5,2)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
@@ -1136,8 +1319,14 @@
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="4">
+        <f>VLOOKUP(B26,'Product List'!$A$2:$C$18,3)</f>
+        <v>19.96</v>
+      </c>
+      <c r="E26" s="4">
+        <f>VLOOKUP(C26,'Product List'!$E$2:$F$5,2)</f>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
@@ -1149,8 +1338,14 @@
       <c r="C27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4">
+        <f>VLOOKUP(B27,'Product List'!$A$2:$C$18,3)</f>
+        <v>3.99</v>
+      </c>
+      <c r="E27" s="4">
+        <f>VLOOKUP(C27,'Product List'!$E$2:$F$5,2)</f>
+        <v>7.25</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
@@ -1162,8 +1357,14 @@
       <c r="C28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4">
+        <f>VLOOKUP(B28,'Product List'!$A$2:$C$18,3)</f>
+        <v>19.96</v>
+      </c>
+      <c r="E28" s="4">
+        <f>VLOOKUP(C28,'Product List'!$E$2:$F$5,2)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -1175,8 +1376,14 @@
       <c r="C29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="4">
+        <f>VLOOKUP(B29,'Product List'!$A$2:$C$18,3)</f>
+        <v>9.99</v>
+      </c>
+      <c r="E29" s="4">
+        <f>VLOOKUP(C29,'Product List'!$E$2:$F$5,2)</f>
+        <v>7.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
